--- a/Content/TableData/SaleStand.xlsx
+++ b/Content/TableData/SaleStand.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lee\Documents\Unreal Projects\ProjectMS\Content\TableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1DF371-BA12-4D5E-994F-0BCCB9100063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C718ADE9-0092-4F52-964F-DF2EDE55ED63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23010" yWindow="5895" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27645" yWindow="6690" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>#</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -96,6 +96,10 @@
   </si>
   <si>
     <t>FName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PathFile</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -442,7 +446,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -489,6 +493,9 @@
       <c r="G2" t="s">
         <v>8</v>
       </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -510,6 +517,9 @@
         <v>16</v>
       </c>
       <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/Content/TableData/SaleStand.xlsx
+++ b/Content/TableData/SaleStand.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lee\Documents\Unreal Projects\ProjectMS\Content\TableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C718ADE9-0092-4F52-964F-DF2EDE55ED63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C3AAC5-74C6-4D87-A7B4-2A59D3B85EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27645" yWindow="6690" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,10 +35,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1 = Fresh, 2 = Refrigeration, 3 = Freezing</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Index</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -51,10 +47,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>FloorCount</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>SlotCount</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -100,6 +92,14 @@
   </si>
   <si>
     <t>PathFile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 = Constant, 2 = Refrigeration, 3 = Freezing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TemperatureType</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -446,13 +446,18 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.75" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.125" customWidth="1"/>
+    <col min="6" max="6" width="9.625" customWidth="1"/>
+    <col min="7" max="7" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -463,7 +468,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -473,54 +478,54 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -530,11 +535,11 @@
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -553,17 +558,17 @@
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G5">
         <v>1000</v>
@@ -576,11 +581,11 @@
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -599,17 +604,17 @@
       <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
         <v>12</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>4</v>
       </c>
       <c r="G7">
         <v>1000</v>
@@ -622,17 +627,17 @@
       <c r="B8">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G8">
         <v>1000</v>
@@ -645,11 +650,11 @@
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -668,11 +673,11 @@
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
       </c>
       <c r="E10">
         <v>1</v>
